--- a/data/ipm.xlsx
+++ b/data/ipm.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webapp\streamlit\Batagor\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapp\streamlit\batagor3273\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D2F94-C744-4EC3-8133-E76DD0C4E228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0209F-AADC-49F6-88D1-10D138B0ADC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -47,7 +47,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,13 +58,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF363435"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2DD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,13 +94,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -734,46 +767,69 @@
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14">
-        <v>74.75</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="C14" s="3">
         <v>14.23</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>17639</v>
       </c>
-      <c r="F14">
-        <v>82.5</v>
-      </c>
-      <c r="G14">
-        <v>0.66</v>
+      <c r="F14" s="2">
+        <v>82.75</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.96388482186433166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>75.040000000000006</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>75.53</v>
+      </c>
+      <c r="C15" s="3">
         <v>14.24</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>11.06</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>18236</v>
       </c>
-      <c r="F15">
-        <v>83.04</v>
-      </c>
-      <c r="G15">
-        <v>0.65</v>
+      <c r="F15" s="2">
+        <v>83.29</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.65256797583082327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="3">
+        <v>75.83</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14.25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11.07</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18795</v>
+      </c>
+      <c r="F16" s="2">
+        <v>83.75</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.55228718933844845</v>
       </c>
     </row>
   </sheetData>
